--- a/biology/Médecine/Ataxie_de_Charlevoix-Saguenay/Ataxie_de_Charlevoix-Saguenay.xlsx
+++ b/biology/Médecine/Ataxie_de_Charlevoix-Saguenay/Ataxie_de_Charlevoix-Saguenay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ataxie de Charlevoix-Saguenay, ou ataxie spastique de type Charlevoix-Saguenay, ou ARSACS (de l'anglais : Autosomal recessive spastic ataxia of Charlevoix-Saguenay) est une maladie neurologique, évolutive et héréditaire, qui ne survient que chez les personnes originaires des régions du Saguenay–Lac-Saint-Jean et de Charlevoix (Canada), ainsi qu'aux personnes dont les ancêtres sont originaires de ces régions.
 </t>
@@ -511,7 +523,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène  SACS  (en) 604490 localisé sur le locus q12  du chromosome 13 codant la sacsine.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mode de transmission
-Transmission autosomique récessive</t>
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Transmission autosomique récessive</t>
         </is>
       </c>
     </row>
@@ -573,11 +592,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Dystrophie musculaire Canada
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:  270 550[1]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:  270 550
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine   Portail du Saguenay–Lac-Saint-Jean                    </t>
         </is>
       </c>
